--- a/pred_ohlcv/54_21/2019-10-26 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4695.2247</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4721.435399999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-165.1808913200003</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4101.403691320001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5085.49400868</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2812.31090868</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2621.87090868</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4365.46850868</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1975.85560868</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>951.6117086800002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>871.3147086800002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>34639.94370868</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>34979.12590868001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>33596.55490868</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>29547.61120868</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>20900.07380868</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19950.92730868</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>20346.61950868</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19443.61950868</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-33361.06582597</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-34143.52902597</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-33955.41992597</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-31034.51692596999</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-18782.90196022</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-18708.23196022</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4695.2247</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4721.435399999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2405.7916</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-165.1808913200003</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-73.67859132000028</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4101.403691320001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3025.966108679999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3223.711808679999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5085.49400868</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2272.84350868</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2812.31090868</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2621.87090868</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4365.46850868</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1975.85560868</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2116.61560868</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>951.6117086800002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>871.3147086800002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>32824.30030868</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>33219.59390868</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>34125.26960868</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>33369.27900868</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>34639.94370868</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>34979.12590868001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>33596.55490868</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>29547.61120868</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>23681.52610868</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>20900.07380868</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>20850.07380868</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19950.92730868</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>20346.61950868</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19443.61950868</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-33955.41992597</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-34103.93502596999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-33913.93502596999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-34121.58002596999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-31034.51692596999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-30016.90066022</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-30206.90066022</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-29800.55066022</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-29838.12326022</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-29636.24416022</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-29097.40636022</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-18782.90196022</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-18708.23196022</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
